--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H2">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I2">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J2">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.076804</v>
+        <v>30.34606566666666</v>
       </c>
       <c r="N2">
-        <v>0.230412</v>
+        <v>91.038197</v>
       </c>
       <c r="O2">
-        <v>0.0008559845391981288</v>
+        <v>0.7437342022026642</v>
       </c>
       <c r="P2">
-        <v>0.000855984539198129</v>
+        <v>0.744350442811843</v>
       </c>
       <c r="Q2">
-        <v>0.07166614521733333</v>
+        <v>66.91146645351967</v>
       </c>
       <c r="R2">
-        <v>0.644995306956</v>
+        <v>602.203198081677</v>
       </c>
       <c r="S2">
-        <v>1.715227333445284E-05</v>
+        <v>0.02517077631820449</v>
       </c>
       <c r="T2">
-        <v>1.726489669193444E-05</v>
+        <v>0.02531076078815948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H3">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I3">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J3">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>12.39743733333333</v>
+        <v>0.1013395</v>
       </c>
       <c r="N3">
-        <v>37.192312</v>
+        <v>0.202679</v>
       </c>
       <c r="O3">
-        <v>0.1381700781601351</v>
+        <v>0.002483671294065179</v>
       </c>
       <c r="P3">
-        <v>0.1381700781601351</v>
+        <v>0.001657152803659562</v>
       </c>
       <c r="Q3">
-        <v>11.56810249796178</v>
+        <v>0.2234482265065</v>
       </c>
       <c r="R3">
-        <v>104.112922481656</v>
+        <v>1.340689359039</v>
       </c>
       <c r="S3">
-        <v>0.00276866092635909</v>
+        <v>8.405682353414856E-05</v>
       </c>
       <c r="T3">
-        <v>0.002786840201092797</v>
+        <v>5.634953079951019E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H4">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I4">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J4">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.25167833333333</v>
+        <v>10.35489433333333</v>
       </c>
       <c r="N4">
-        <v>231.755035</v>
+        <v>31.064683</v>
       </c>
       <c r="O4">
-        <v>0.8609739373006667</v>
+        <v>0.2537821265032705</v>
       </c>
       <c r="P4">
-        <v>0.8609739373006668</v>
+        <v>0.2539924043844974</v>
       </c>
       <c r="Q4">
-        <v>72.08387581010612</v>
+        <v>22.83199319560034</v>
       </c>
       <c r="R4">
-        <v>648.754882290955</v>
+        <v>205.487938760403</v>
       </c>
       <c r="S4">
-        <v>0.01725225121502216</v>
+        <v>0.008588946320948443</v>
       </c>
       <c r="T4">
-        <v>0.01736553103619017</v>
+        <v>0.008636712789610767</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H5">
         <v>22.398687</v>
       </c>
       <c r="I5">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J5">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.076804</v>
+        <v>30.34606566666666</v>
       </c>
       <c r="N5">
-        <v>0.230412</v>
+        <v>91.038197</v>
       </c>
       <c r="O5">
-        <v>0.0008559845391981288</v>
+        <v>0.7437342022026642</v>
       </c>
       <c r="P5">
-        <v>0.000855984539198129</v>
+        <v>0.744350442811843</v>
       </c>
       <c r="Q5">
-        <v>0.5734362521159999</v>
+        <v>226.570675516371</v>
       </c>
       <c r="R5">
-        <v>5.160926269044</v>
+        <v>2039.136079647339</v>
       </c>
       <c r="S5">
-        <v>0.0001372438172354629</v>
+        <v>0.08523142737648189</v>
       </c>
       <c r="T5">
-        <v>0.000138144972387859</v>
+        <v>0.0857054324700862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H6">
         <v>22.398687</v>
       </c>
       <c r="I6">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J6">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>12.39743733333333</v>
+        <v>0.1013395</v>
       </c>
       <c r="N6">
-        <v>37.192312</v>
+        <v>0.202679</v>
       </c>
       <c r="O6">
-        <v>0.1381700781601351</v>
+        <v>0.002483671294065179</v>
       </c>
       <c r="P6">
-        <v>0.1381700781601351</v>
+        <v>0.001657152803659562</v>
       </c>
       <c r="Q6">
-        <v>92.562106143816</v>
+        <v>0.7566239137455001</v>
       </c>
       <c r="R6">
-        <v>833.0589552943439</v>
+        <v>4.539743482473001</v>
       </c>
       <c r="S6">
-        <v>0.02215342460762597</v>
+        <v>0.0002846270198415392</v>
       </c>
       <c r="T6">
-        <v>0.02229888597069874</v>
+        <v>0.0001908066275478259</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H7">
         <v>22.398687</v>
       </c>
       <c r="I7">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J7">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>77.25167833333333</v>
+        <v>10.35489433333333</v>
       </c>
       <c r="N7">
-        <v>231.755035</v>
+        <v>31.064683</v>
       </c>
       <c r="O7">
-        <v>0.8609739373006667</v>
+        <v>0.2537821265032705</v>
       </c>
       <c r="P7">
-        <v>0.8609739373006668</v>
+        <v>0.2539924043844974</v>
       </c>
       <c r="Q7">
-        <v>576.778721071005</v>
+        <v>77.31201236346902</v>
       </c>
       <c r="R7">
-        <v>5191.008489639044</v>
+        <v>695.8081112712212</v>
       </c>
       <c r="S7">
-        <v>0.1380437896764852</v>
+        <v>0.02908325692223377</v>
       </c>
       <c r="T7">
-        <v>0.1389501975193232</v>
+        <v>0.02924500021744868</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H8">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I8">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J8">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.076804</v>
+        <v>30.34606566666666</v>
       </c>
       <c r="N8">
-        <v>0.230412</v>
+        <v>91.038197</v>
       </c>
       <c r="O8">
-        <v>0.0008559845391981288</v>
+        <v>0.7437342022026642</v>
       </c>
       <c r="P8">
-        <v>0.000855984539198129</v>
+        <v>0.744350442811843</v>
       </c>
       <c r="Q8">
-        <v>2.233445061605333</v>
+        <v>959.5676824609509</v>
       </c>
       <c r="R8">
-        <v>20.101005554448</v>
+        <v>8636.109142148558</v>
       </c>
       <c r="S8">
-        <v>0.0005345433336474908</v>
+        <v>0.3609704700491133</v>
       </c>
       <c r="T8">
-        <v>0.0005380531928819435</v>
+        <v>0.3629779671274885</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H9">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I9">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J9">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>12.39743733333333</v>
+        <v>0.1013395</v>
       </c>
       <c r="N9">
-        <v>37.192312</v>
+        <v>0.202679</v>
       </c>
       <c r="O9">
-        <v>0.1381700781601351</v>
+        <v>0.002483671294065179</v>
       </c>
       <c r="P9">
-        <v>0.1381700781601351</v>
+        <v>0.001657152803659562</v>
       </c>
       <c r="Q9">
-        <v>360.5150146957832</v>
+        <v>3.204438763986666</v>
       </c>
       <c r="R9">
-        <v>3244.635132262049</v>
+        <v>19.22663258392</v>
       </c>
       <c r="S9">
-        <v>0.08628414510762278</v>
+        <v>0.001205446773606757</v>
       </c>
       <c r="T9">
-        <v>0.08685069450489306</v>
+        <v>0.0008081004877483704</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H10">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I10">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J10">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>77.25167833333333</v>
+        <v>10.35489433333333</v>
       </c>
       <c r="N10">
-        <v>231.755035</v>
+        <v>31.064683</v>
       </c>
       <c r="O10">
-        <v>0.8609739373006667</v>
+        <v>0.2537821265032705</v>
       </c>
       <c r="P10">
-        <v>0.8609739373006668</v>
+        <v>0.2539924043844974</v>
       </c>
       <c r="Q10">
-        <v>2246.463458599905</v>
+        <v>327.4303188659822</v>
       </c>
       <c r="R10">
-        <v>20218.17112739914</v>
+        <v>2946.87286979384</v>
       </c>
       <c r="S10">
-        <v>0.5376591019499458</v>
+        <v>0.1231728394668965</v>
       </c>
       <c r="T10">
-        <v>0.5411894195971415</v>
+        <v>0.123857851499408</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H11">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I11">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J11">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.076804</v>
+        <v>30.34606566666666</v>
       </c>
       <c r="N11">
-        <v>0.230412</v>
+        <v>91.038197</v>
       </c>
       <c r="O11">
-        <v>0.0008559845391981288</v>
+        <v>0.7437342022026642</v>
       </c>
       <c r="P11">
-        <v>0.000855984539198129</v>
+        <v>0.744350442811843</v>
       </c>
       <c r="Q11">
-        <v>0.06999129319</v>
+        <v>27.91602859324416</v>
       </c>
       <c r="R11">
-        <v>0.41994775914</v>
+        <v>167.496171559465</v>
       </c>
       <c r="S11">
-        <v>1.675142130480251E-05</v>
+        <v>0.01050146034239529</v>
       </c>
       <c r="T11">
-        <v>1.124094175472205E-05</v>
+        <v>0.00703990869656448</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H12">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I12">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J12">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>12.39743733333333</v>
+        <v>0.1013395</v>
       </c>
       <c r="N12">
-        <v>37.192312</v>
+        <v>0.202679</v>
       </c>
       <c r="O12">
-        <v>0.1381700781601351</v>
+        <v>0.002483671294065179</v>
       </c>
       <c r="P12">
-        <v>0.1381700781601351</v>
+        <v>0.001657152803659562</v>
       </c>
       <c r="Q12">
-        <v>11.29775364827334</v>
+        <v>0.09322448618875</v>
       </c>
       <c r="R12">
-        <v>67.78652188964001</v>
+        <v>0.372897944755</v>
       </c>
       <c r="S12">
-        <v>0.002703956771399328</v>
+        <v>3.506921628846079E-05</v>
       </c>
       <c r="T12">
-        <v>0.001814474128584666</v>
+        <v>1.567299992453709E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H13">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I13">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J13">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>77.25167833333333</v>
+        <v>10.35489433333333</v>
       </c>
       <c r="N13">
-        <v>231.755035</v>
+        <v>31.064683</v>
       </c>
       <c r="O13">
-        <v>0.8609739373006667</v>
+        <v>0.2537821265032705</v>
       </c>
       <c r="P13">
-        <v>0.8609739373006668</v>
+        <v>0.2539924043844974</v>
       </c>
       <c r="Q13">
-        <v>70.39926133597083</v>
+        <v>9.525700282355833</v>
       </c>
       <c r="R13">
-        <v>422.395568015825</v>
+        <v>57.154201694135</v>
       </c>
       <c r="S13">
-        <v>0.01684906268247422</v>
+        <v>0.003583380903002518</v>
       </c>
       <c r="T13">
-        <v>0.01130646342116978</v>
+        <v>0.00240220631794497</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H14">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I14">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J14">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.076804</v>
+        <v>30.34606566666666</v>
       </c>
       <c r="N14">
-        <v>0.230412</v>
+        <v>91.038197</v>
       </c>
       <c r="O14">
-        <v>0.0008559845391981288</v>
+        <v>0.7437342022026642</v>
       </c>
       <c r="P14">
-        <v>0.000855984539198129</v>
+        <v>0.744350442811843</v>
       </c>
       <c r="Q14">
-        <v>0.6279616390320001</v>
+        <v>696.1025334216376</v>
       </c>
       <c r="R14">
-        <v>5.651654751288</v>
+        <v>6264.922800794739</v>
       </c>
       <c r="S14">
-        <v>0.0001502936936759197</v>
+        <v>0.2618600681164693</v>
       </c>
       <c r="T14">
-        <v>0.0001512805354816699</v>
+        <v>0.2633163737295445</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H15">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I15">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J15">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>12.39743733333333</v>
+        <v>0.1013395</v>
       </c>
       <c r="N15">
-        <v>37.192312</v>
+        <v>0.202679</v>
       </c>
       <c r="O15">
-        <v>0.1381700781601351</v>
+        <v>0.002483671294065179</v>
       </c>
       <c r="P15">
-        <v>0.1381700781601351</v>
+        <v>0.001657152803659562</v>
       </c>
       <c r="Q15">
-        <v>101.363406432432</v>
+        <v>2.324607198196667</v>
       </c>
       <c r="R15">
-        <v>912.2706578918882</v>
+        <v>13.94764318918</v>
       </c>
       <c r="S15">
-        <v>0.0242598907471279</v>
+        <v>0.0008744714607942731</v>
       </c>
       <c r="T15">
-        <v>0.0244191833548658</v>
+        <v>0.0005862231576393187</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H16">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I16">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J16">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>77.25167833333333</v>
+        <v>10.35489433333333</v>
       </c>
       <c r="N16">
-        <v>231.755035</v>
+        <v>31.064683</v>
       </c>
       <c r="O16">
-        <v>0.8609739373006667</v>
+        <v>0.2537821265032705</v>
       </c>
       <c r="P16">
-        <v>0.8609739373006668</v>
+        <v>0.2539924043844974</v>
       </c>
       <c r="Q16">
-        <v>631.62192781851</v>
+        <v>237.5289191660956</v>
       </c>
       <c r="R16">
-        <v>5684.59735036659</v>
+        <v>2137.76027249486</v>
       </c>
       <c r="S16">
-        <v>0.1511697317767393</v>
+        <v>0.08935370289018932</v>
       </c>
       <c r="T16">
-        <v>0.1521623257268422</v>
+        <v>0.08985063356008499</v>
       </c>
     </row>
   </sheetData>
